--- a/mapping_files/CalcTemplate.xlsx
+++ b/mapping_files/CalcTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,371 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="119">
+  <si>
+    <t>sink col id</t>
+  </si>
+  <si>
+    <t>sink col name</t>
+  </si>
+  <si>
+    <t>sink range</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function</t>
+  </si>
+  <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t>source col id</t>
+  </si>
+  <si>
+    <t>source col name</t>
+  </si>
+  <si>
+    <t>source col range</t>
+  </si>
+  <si>
+    <t>sink mappers</t>
+  </si>
+  <si>
+    <t>pbagetc3</t>
+  </si>
+  <si>
+    <t>pbdetc3m</t>
+  </si>
+  <si>
+    <t>pbdetc3s</t>
+  </si>
+  <si>
+    <t>pbsatc3m</t>
+  </si>
+  <si>
+    <t>pbsatc3s</t>
+  </si>
+  <si>
+    <t>pboatc3m</t>
+  </si>
+  <si>
+    <t>pboatc3s</t>
+  </si>
+  <si>
+    <t>pbcdtc3m</t>
+  </si>
+  <si>
+    <t>pbcdtc3s</t>
+  </si>
+  <si>
+    <t>pbodtc3m</t>
+  </si>
+  <si>
+    <t>pbodtc3s</t>
+  </si>
+  <si>
+    <t>pbimtc3m</t>
+  </si>
+  <si>
+    <t>pbimtc3s</t>
+  </si>
+  <si>
+    <t>pbattc3m</t>
+  </si>
+  <si>
+    <t>pbattc3s</t>
+  </si>
+  <si>
+    <t>pbsxtc3m</t>
+  </si>
+  <si>
+    <t>pbsxtc3s</t>
+  </si>
+  <si>
+    <t>pbphtc3m</t>
+  </si>
+  <si>
+    <t>pbphtc3s</t>
+  </si>
+  <si>
+    <t>familyid</t>
+  </si>
+  <si>
+    <t>twin</t>
+  </si>
+  <si>
+    <t>datamode</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>pbim001t</t>
+  </si>
+  <si>
+    <t>pbsa002t</t>
+  </si>
+  <si>
+    <t>pboa003t</t>
+  </si>
+  <si>
+    <t>pbde004t</t>
+  </si>
+  <si>
+    <t>pbcd005t</t>
+  </si>
+  <si>
+    <t>pbsa006t</t>
+  </si>
+  <si>
+    <t>pboa007t</t>
+  </si>
+  <si>
+    <t>pbde008t</t>
+  </si>
+  <si>
+    <t>pbim009t</t>
+  </si>
+  <si>
+    <t>pbcd010t</t>
+  </si>
+  <si>
+    <t>pbde011t</t>
+  </si>
+  <si>
+    <t>pbsx012t</t>
+  </si>
+  <si>
+    <t>pbsa013t</t>
+  </si>
+  <si>
+    <t>pboa014t</t>
+  </si>
+  <si>
+    <t>pbat015t</t>
+  </si>
+  <si>
+    <t>pbsx016t</t>
+  </si>
+  <si>
+    <t>pbde017t</t>
+  </si>
+  <si>
+    <t>pboa018t</t>
+  </si>
+  <si>
+    <t>pbim019t</t>
+  </si>
+  <si>
+    <t>pboa020t</t>
+  </si>
+  <si>
+    <t>pbat021t</t>
+  </si>
+  <si>
+    <t>pbsx022t</t>
+  </si>
+  <si>
+    <t>pbod023t</t>
+  </si>
+  <si>
+    <t>pbde024t</t>
+  </si>
+  <si>
+    <t>pboa025t</t>
+  </si>
+  <si>
+    <t>pbde026t</t>
+  </si>
+  <si>
+    <t>pbsx027t</t>
+  </si>
+  <si>
+    <t>pbim028t</t>
+  </si>
+  <si>
+    <t>pbod029t</t>
+  </si>
+  <si>
+    <t>pbcd030t</t>
+  </si>
+  <si>
+    <t>pbsa031t</t>
+  </si>
+  <si>
+    <t>pbsx032t</t>
+  </si>
+  <si>
+    <t>pbat033t</t>
+  </si>
+  <si>
+    <t>pbod034t</t>
+  </si>
+  <si>
+    <t>pbsx035t</t>
+  </si>
+  <si>
+    <t>pboa036t</t>
+  </si>
+  <si>
+    <t>pbde037t</t>
+  </si>
+  <si>
+    <t>pbim038t</t>
+  </si>
+  <si>
+    <t>pbsa039t</t>
+  </si>
+  <si>
+    <t>pbim040t</t>
+  </si>
+  <si>
+    <t>pbsx041t</t>
+  </si>
+  <si>
+    <t>pbod042t</t>
+  </si>
+  <si>
+    <t>pbde043t</t>
+  </si>
+  <si>
+    <t>pbod044t</t>
+  </si>
+  <si>
+    <t>pbde045t</t>
+  </si>
+  <si>
+    <t>pbsa046t</t>
+  </si>
+  <si>
+    <t>pbde047t</t>
+  </si>
+  <si>
+    <t>pbcd048t</t>
+  </si>
+  <si>
+    <t>pbod049t</t>
+  </si>
+  <si>
+    <t>pbcd050t</t>
+  </si>
+  <si>
+    <t>pboa051t</t>
+  </si>
+  <si>
+    <t>pbod052t</t>
+  </si>
+  <si>
+    <t>pbcd053t</t>
+  </si>
+  <si>
+    <t>pbcd054t</t>
+  </si>
+  <si>
+    <t>pbde055t</t>
+  </si>
+  <si>
+    <t>pbod056t</t>
+  </si>
+  <si>
+    <t>pbim057t</t>
+  </si>
+  <si>
+    <t>pbde058t</t>
+  </si>
+  <si>
+    <t>pbde059t</t>
+  </si>
+  <si>
+    <t>pbcd060t</t>
+  </si>
+  <si>
+    <t>pbcd061t</t>
+  </si>
+  <si>
+    <t>pboa062t</t>
+  </si>
+  <si>
+    <t>pbim063t</t>
+  </si>
+  <si>
+    <t>pbcd064t</t>
+  </si>
+  <si>
+    <t>pboa065t</t>
+  </si>
+  <si>
+    <t>pbod066t</t>
+  </si>
+  <si>
+    <t>pbcd067t</t>
+  </si>
+  <si>
+    <t>pboa068t</t>
+  </si>
+  <si>
+    <t>pbat069t</t>
+  </si>
+  <si>
+    <t>pbcd070t</t>
+  </si>
+  <si>
+    <t>pboa071t</t>
+  </si>
+  <si>
+    <t>pbsa072t</t>
+  </si>
+  <si>
+    <t>pbat073t</t>
+  </si>
+  <si>
+    <t>pboa074t</t>
+  </si>
+  <si>
+    <t>pbat075t</t>
+  </si>
+  <si>
+    <t>pbat076t</t>
+  </si>
+  <si>
+    <t>pbod077t</t>
+  </si>
+  <si>
+    <t>pbsa078t</t>
+  </si>
+  <si>
+    <t>pbph079t</t>
+  </si>
+  <si>
+    <t>pbph080t</t>
+  </si>
+  <si>
+    <t>pbph081t</t>
+  </si>
+  <si>
+    <t>pbph082t</t>
+  </si>
+  <si>
+    <t>pbph083t</t>
+  </si>
+  <si>
+    <t>pbph084t</t>
+  </si>
+  <si>
+    <t>1::7</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,19,20,21,22</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +414,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +711,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="H39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="H40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>52</v>
+      </c>
+      <c r="H53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>53</v>
+      </c>
+      <c r="H54" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>54</v>
+      </c>
+      <c r="H55" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>55</v>
+      </c>
+      <c r="H56" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>56</v>
+      </c>
+      <c r="H57" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>57</v>
+      </c>
+      <c r="H58" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>58</v>
+      </c>
+      <c r="H59" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>59</v>
+      </c>
+      <c r="H60" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>60</v>
+      </c>
+      <c r="H61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>61</v>
+      </c>
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>63</v>
+      </c>
+      <c r="H64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>64</v>
+      </c>
+      <c r="H65" t="s">
+        <v>87</v>
+      </c>
+      <c r="I65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>65</v>
+      </c>
+      <c r="H66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>66</v>
+      </c>
+      <c r="H67" t="s">
+        <v>108</v>
+      </c>
+      <c r="I67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>67</v>
+      </c>
+      <c r="H68" t="s">
+        <v>110</v>
+      </c>
+      <c r="I68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>68</v>
+      </c>
+      <c r="H69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>69</v>
+      </c>
+      <c r="H70" t="s">
+        <v>112</v>
+      </c>
+      <c r="I70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>70</v>
+      </c>
+      <c r="H71" t="s">
+        <v>113</v>
+      </c>
+      <c r="I71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>71</v>
+      </c>
+      <c r="H72" t="s">
+        <v>114</v>
+      </c>
+      <c r="I72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s">
+        <v>115</v>
+      </c>
+      <c r="I73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s">
+        <v>103</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s">
+        <v>109</v>
+      </c>
+      <c r="I81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
+        <v>53</v>
+      </c>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s">
+        <v>58</v>
+      </c>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>85</v>
+      </c>
+      <c r="H86" t="s">
+        <v>63</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s">
+        <v>66</v>
+      </c>
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s">
+        <v>72</v>
+      </c>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>88</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="H2:H89">
+    <sortCondition ref="H2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>